--- a/9_DataManagement/UserDomain.xlsx
+++ b/9_DataManagement/UserDomain.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="UserGroup_SITE" sheetId="1" r:id="rId1"/>
-    <sheet name="Roles" sheetId="2" r:id="rId2"/>
+    <sheet name="Roles" sheetId="2" r:id="rId1"/>
+    <sheet name="UserGroup_SITE" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Roles!$A$1:$F$24</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>UserGroup</t>
   </si>
@@ -57,9 +60,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -79,13 +79,112 @@
   </si>
   <si>
     <t xml:space="preserve">TestLeader ? </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Primary objective</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>PVT Engineer</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Lead a PVT in a truck incl participate in the testing</t>
+  </si>
+  <si>
+    <t>Support PVT development (Processes, Methods and Tools)</t>
+  </si>
+  <si>
+    <t>PVT Driver</t>
+  </si>
+  <si>
+    <t>Perform a PVT in a truck</t>
+  </si>
+  <si>
+    <t>PVT Planner</t>
+  </si>
+  <si>
+    <t>Plan all PVT, Coordinate tests and resources</t>
+  </si>
+  <si>
+    <t>Manager, Coordinator and/or delegated</t>
+  </si>
+  <si>
+    <t>PVT Tester</t>
+  </si>
+  <si>
+    <t>Support PVT testing with truck knowledge expertise</t>
+  </si>
+  <si>
+    <t>PVT Troubleshooter</t>
+  </si>
+  <si>
+    <t>Troubleshoot issues and support PVT Engineers</t>
+  </si>
+  <si>
+    <t>PVT Coordinator</t>
+  </si>
+  <si>
+    <t>Local responsible for PVT</t>
+  </si>
+  <si>
+    <t>All different roles</t>
+  </si>
+  <si>
+    <t>PVT Developer</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Develop PVT tests</t>
+  </si>
+  <si>
+    <t>PVT Truck Function Specialist</t>
+  </si>
+  <si>
+    <t>Develop PVT Processes, Methods &amp; Tools (PMT)</t>
+  </si>
+  <si>
+    <t>PVT Tools</t>
+  </si>
+  <si>
+    <t>Develop tools for PVT and their users</t>
+  </si>
+  <si>
+    <t>PVT Global Coordinator</t>
+  </si>
+  <si>
+    <t>Coordinate sites including startup</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Order a PVT and receive the report</t>
+  </si>
+  <si>
+    <t>PVT_Handbook</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +196,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,9 +224,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,6 +526,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="84.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F24"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -533,170 +1041,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/9_DataManagement/UserDomain.xlsx
+++ b/9_DataManagement/UserDomain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="2" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Roles!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Roles!$A$1:$F$27</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>UserGroup</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Test Driver</t>
   </si>
   <si>
-    <t>Global Test Manager</t>
-  </si>
-  <si>
     <t xml:space="preserve">TestLeader ? </t>
   </si>
   <si>
@@ -178,13 +175,19 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>Local Editor</t>
+  </si>
+  <si>
+    <t>Master Editor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +203,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -221,10 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -553,390 +573,414 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
         <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F24"/>
+  <autoFilter ref="A1:F27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
